--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2134265.445747737</v>
+        <v>-2136016.014666372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473559</v>
+        <v>6661238.247473557</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774242</v>
+        <v>170.7734604292297</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>261.6808958849512</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346266</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862054</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>98.91085724434961</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546364</v>
       </c>
       <c r="H11" t="n">
-        <v>207.3370702978284</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.9118078588346</v>
+        <v>41.91180785883459</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.3023197792038</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>266.1391047924127</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.941187763811</v>
+        <v>94.56920574689455</v>
       </c>
       <c r="C12" t="n">
-        <v>69.1165031022594</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.91793757260874</v>
+        <v>43.8530696785824</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>41.47721650732754</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26016863753169</v>
+        <v>32.26016863753168</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057089</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>40.38995403882652</v>
+        <v>40.3899540388265</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1535309938866</v>
+        <v>90.56153510783028</v>
       </c>
       <c r="U12" t="n">
-        <v>122.2512708896802</v>
+        <v>122.2512708896801</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>129.2085912633689</v>
       </c>
       <c r="W12" t="n">
         <v>148.1029872748633</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588096</v>
+        <v>76.23998429588094</v>
       </c>
       <c r="C13" t="n">
-        <v>63.6548252125715</v>
+        <v>63.65482521257148</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215602</v>
+        <v>45.023477132156</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051283</v>
+        <v>42.84196676051282</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687491</v>
+        <v>41.82905213687489</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712492</v>
+        <v>63.1486835171249</v>
       </c>
       <c r="H13" t="n">
-        <v>47.5188733826432</v>
+        <v>47.51887338264319</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703831</v>
+        <v>14.2585494770383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654448</v>
+        <v>17.48336295654446</v>
       </c>
       <c r="S13" t="n">
-        <v>98.6352838393979</v>
+        <v>98.63528383939789</v>
       </c>
       <c r="T13" t="n">
-        <v>119.0114028242213</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U13" t="n">
         <v>182.6588352910558</v>
@@ -1594,7 +1594,7 @@
         <v>122.1176595029808</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.9926574660385</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.1418457774242</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>261.6808958849512</v>
@@ -1613,16 +1613,16 @@
         <v>251.0910457346266</v>
       </c>
       <c r="E14" t="n">
-        <v>2.393463343572648</v>
+        <v>239.8509246795613</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>303.2840498556551</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.9234123546364</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.3370702978284</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883461</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3023197792038</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U14" t="n">
         <v>147.5306706798248</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840786</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.6489728313567</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>266.1391047924127</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>282.6459427699972</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.941187763811</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>43.85306967858241</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.852164523588</v>
+        <v>32.26016863753168</v>
       </c>
       <c r="H15" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002271</v>
+        <v>27.67596504456903</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S15" t="n">
-        <v>143.9819499248829</v>
+        <v>40.3899540388265</v>
       </c>
       <c r="T15" t="n">
-        <v>90.5615351078303</v>
+        <v>90.56153510783028</v>
       </c>
       <c r="U15" t="n">
-        <v>122.2512708896802</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.0812035540115</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588096</v>
+        <v>76.23998429588094</v>
       </c>
       <c r="C16" t="n">
-        <v>63.6548252125715</v>
+        <v>63.65482521257148</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215602</v>
+        <v>45.023477132156</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051283</v>
+        <v>42.84196676051282</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687491</v>
+        <v>41.82905213687489</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712492</v>
+        <v>63.1486835171249</v>
       </c>
       <c r="H16" t="n">
-        <v>47.5188733826432</v>
+        <v>47.51887338264319</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703832</v>
+        <v>14.25854947703831</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654448</v>
+        <v>17.48336295654447</v>
       </c>
       <c r="S16" t="n">
-        <v>98.6352838393979</v>
+        <v>98.63528383939789</v>
       </c>
       <c r="T16" t="n">
-        <v>119.0114028242213</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U16" t="n">
         <v>182.6588352910558</v>
@@ -1831,7 +1831,7 @@
         <v>122.1176595029808</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.9926574660385</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>171.7823492099628</v>
       </c>
       <c r="E17" t="n">
-        <v>176.4650969902535</v>
+        <v>199.0296776615417</v>
       </c>
       <c r="F17" t="n">
         <v>223.9753533309913</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.99362325453997</v>
+        <v>27.99362325453998</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516098</v>
+        <v>45.6573934838729</v>
       </c>
       <c r="V17" t="n">
         <v>144.8515660594148</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1535309938866</v>
+        <v>152.8379997187348</v>
       </c>
       <c r="U18" t="n">
-        <v>185.4568996007468</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>68.79429075019948</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>25.83283662399527</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>130.047655907215</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S19" t="n">
-        <v>19.32658731473411</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T19" t="n">
         <v>39.70270629955747</v>
@@ -2062,10 +2062,10 @@
         <v>69.23695091310788</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.6223059258709</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>42.80896297831703</v>
       </c>
       <c r="Y19" t="n">
         <v>35.68396094137466</v>
@@ -2081,13 +2081,13 @@
         <v>199.8331492527604</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602874</v>
+        <v>159.8076186889994</v>
       </c>
       <c r="D20" t="n">
         <v>171.7823492099628</v>
       </c>
       <c r="E20" t="n">
-        <v>176.4650969902536</v>
+        <v>199.0296776615417</v>
       </c>
       <c r="F20" t="n">
         <v>223.9753533309913</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.99362325453997</v>
+        <v>27.99362325453998</v>
       </c>
       <c r="U20" t="n">
         <v>68.22197415516098</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>103.0289474376557</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1535309938866</v>
+        <v>190.8876228287576</v>
       </c>
       <c r="U21" t="n">
         <v>225.8432667757365</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.78200336658423</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,22 +2245,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.17896531190311</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>132.2291662788582</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2272797254542</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6033987102776</v>
+        <v>39.70270629955747</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2508311771121</v>
+        <v>103.350138766392</v>
       </c>
       <c r="V22" t="n">
         <v>69.23695091310788</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453997</v>
+        <v>27.99362325453998</v>
       </c>
       <c r="U23" t="n">
         <v>68.22197415516098</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S24" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1535309938866</v>
+        <v>77.60003897645682</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
       </c>
       <c r="V24" t="n">
-        <v>155.1658376178328</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.78200336658423</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.4324991970753</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.32658731473411</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T25" t="n">
         <v>222.6033987102776</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2508311771121</v>
+        <v>103.350138766392</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310788</v>
       </c>
       <c r="W25" t="n">
         <v>103.6223059258709</v>
       </c>
       <c r="X25" t="n">
-        <v>42.80896297831703</v>
+        <v>92.90607893244375</v>
       </c>
       <c r="Y25" t="n">
         <v>35.68396094137466</v>
@@ -2573,7 +2573,7 @@
         <v>231.620369659221</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280452</v>
+        <v>23.70868119280456</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022716</v>
+        <v>66.19510722022719</v>
       </c>
       <c r="T26" t="n">
-        <v>131.5856191405963</v>
+        <v>131.5856191405964</v>
       </c>
       <c r="U26" t="n">
         <v>171.8139700412173</v>
@@ -2621,7 +2621,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.9292421313898</v>
+        <v>306.9292421313899</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I27" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2713,25 +2713,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C28" t="n">
-        <v>87.93812457396405</v>
+        <v>87.93812457396407</v>
       </c>
       <c r="D28" t="n">
-        <v>69.30677649354857</v>
+        <v>69.3067764935486</v>
       </c>
       <c r="E28" t="n">
-        <v>67.12526612190538</v>
+        <v>67.12526612190541</v>
       </c>
       <c r="F28" t="n">
-        <v>66.11235149826746</v>
+        <v>66.11235149826749</v>
       </c>
       <c r="G28" t="n">
-        <v>87.43198287851746</v>
+        <v>87.43198287851749</v>
       </c>
       <c r="H28" t="n">
-        <v>71.80217274403576</v>
+        <v>71.80217274403579</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843087</v>
+        <v>38.54184883843091</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793703</v>
+        <v>41.76666231793706</v>
       </c>
       <c r="S28" t="n">
         <v>122.9185832007905</v>
@@ -2810,7 +2810,7 @@
         <v>231.620369659221</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280452</v>
+        <v>23.70868119280455</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022713</v>
+        <v>66.19510722022717</v>
       </c>
       <c r="T29" t="n">
-        <v>131.5856191405963</v>
+        <v>131.5856191405964</v>
       </c>
       <c r="U29" t="n">
         <v>171.8139700412173</v>
@@ -2950,25 +2950,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C31" t="n">
-        <v>87.93812457396403</v>
+        <v>87.93812457396406</v>
       </c>
       <c r="D31" t="n">
-        <v>69.30677649354855</v>
+        <v>69.30677649354858</v>
       </c>
       <c r="E31" t="n">
-        <v>67.12526612190537</v>
+        <v>67.1252661219054</v>
       </c>
       <c r="F31" t="n">
-        <v>66.11235149826744</v>
+        <v>66.11235149826747</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851745</v>
+        <v>87.43198287851747</v>
       </c>
       <c r="H31" t="n">
-        <v>71.80217274403574</v>
+        <v>71.80217274403576</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843087</v>
+        <v>38.54184883843089</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76666231793702</v>
+        <v>41.76666231793705</v>
       </c>
       <c r="S31" t="n">
         <v>122.9185832007905</v>
@@ -3029,7 +3029,7 @@
         <v>303.4251451388168</v>
       </c>
       <c r="C32" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D32" t="n">
         <v>275.3743450960192</v>
@@ -3044,10 +3044,10 @@
         <v>333.206711716029</v>
       </c>
       <c r="H32" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280451</v>
+        <v>23.70868119280452</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022713</v>
+        <v>66.19510722022714</v>
       </c>
       <c r="T32" t="n">
         <v>131.5856191405963</v>
@@ -3095,7 +3095,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396402</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D34" t="n">
-        <v>69.30677649354854</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190536</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826743</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851743</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403573</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I34" t="n">
-        <v>38.54184883843085</v>
+        <v>38.54184883843087</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.766662317937</v>
+        <v>41.76666231793702</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T34" t="n">
         <v>143.2947021856138</v>
@@ -3250,7 +3250,7 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y34" t="n">
         <v>139.275956827431</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>24.397251400456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>14.33361641398759</v>
+        <v>31.58638416424742</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.48725267606645</v>
+        <v>58.48725267606644</v>
       </c>
       <c r="U38" t="n">
         <v>98.71560357668744</v>
@@ -3600,7 +3600,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I39" t="n">
-        <v>38.04962311002163</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>27.42491719274364</v>
       </c>
       <c r="C40" t="n">
-        <v>14.83975810943417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.20282640517487</v>
       </c>
       <c r="G40" t="n">
         <v>14.33361641398759</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.4112364341934</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>70.19633572108394</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2508311771121</v>
+        <v>133.8437681879184</v>
       </c>
       <c r="V40" t="n">
         <v>99.73058033463434</v>
@@ -3724,7 +3724,7 @@
         <v>134.1159353473973</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984349</v>
       </c>
       <c r="Y40" t="n">
         <v>66.17759036290113</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.48725267606645</v>
+        <v>58.48725267606644</v>
       </c>
       <c r="U41" t="n">
         <v>98.71560357668744</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.42491719274364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>14.83975810943417</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7406794031812</v>
+        <v>14.33361641398759</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>49.82021673626058</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6033987102776</v>
+        <v>70.19633572108394</v>
       </c>
       <c r="U43" t="n">
         <v>133.8437681879184</v>
       </c>
       <c r="V43" t="n">
-        <v>118.1547313924658</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W43" t="n">
         <v>134.1159353473973</v>
       </c>
       <c r="X43" t="n">
-        <v>73.30259239984349</v>
+        <v>83.5693451838408</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.17759036290113</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4071,7 +4071,7 @@
         <v>135.852164523588</v>
       </c>
       <c r="H45" t="n">
-        <v>97.83211742750971</v>
+        <v>97.83211742750862</v>
       </c>
       <c r="I45" t="n">
         <v>38.04962311002272</v>
@@ -4138,25 +4138,25 @@
         <v>14.83975810943417</v>
       </c>
       <c r="D46" t="n">
-        <v>18.42415105783124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.33361641398759</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.26675278399716</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>134.1159353473973</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984349</v>
       </c>
       <c r="Y46" t="n">
         <v>66.17759036290113</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>872.5846483069643</v>
+        <v>604.8341036368413</v>
       </c>
       <c r="C11" t="n">
-        <v>872.5846483069643</v>
+        <v>340.5099663793142</v>
       </c>
       <c r="D11" t="n">
-        <v>618.957329383099</v>
+        <v>340.5099663793142</v>
       </c>
       <c r="E11" t="n">
-        <v>337.8074564677401</v>
+        <v>340.5099663793142</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8974996552657</v>
+        <v>340.5099663793142</v>
       </c>
       <c r="G11" t="n">
-        <v>237.8974996552657</v>
+        <v>28.46611551604509</v>
       </c>
       <c r="H11" t="n">
         <v>28.46611551604509</v>
@@ -5069,22 +5069,22 @@
         <v>1380.970616348886</v>
       </c>
       <c r="T11" t="n">
-        <v>1380.970616348886</v>
+        <v>1272.584434753731</v>
       </c>
       <c r="U11" t="n">
-        <v>1380.970616348886</v>
+        <v>1272.584434753731</v>
       </c>
       <c r="V11" t="n">
-        <v>1154.546108688201</v>
+        <v>1046.159927093046</v>
       </c>
       <c r="W11" t="n">
-        <v>1154.546108688201</v>
+        <v>1046.159927093046</v>
       </c>
       <c r="X11" t="n">
-        <v>1154.546108688201</v>
+        <v>777.3325485148509</v>
       </c>
       <c r="Y11" t="n">
-        <v>1154.546108688201</v>
+        <v>777.3325485148509</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.6044046828414</v>
+        <v>585.5732166809083</v>
       </c>
       <c r="C12" t="n">
-        <v>330.7897550845996</v>
+        <v>411.1201873997813</v>
       </c>
       <c r="D12" t="n">
-        <v>262.1857777385301</v>
+        <v>366.8241574214153</v>
       </c>
       <c r="E12" t="n">
-        <v>102.9483227330746</v>
+        <v>207.5867024159598</v>
       </c>
       <c r="F12" t="n">
-        <v>61.05214444284479</v>
+        <v>61.05214444284477</v>
       </c>
       <c r="G12" t="n">
         <v>28.46611551604509</v>
@@ -5118,52 +5118,52 @@
         <v>28.46611551604509</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520935</v>
+        <v>167.2181082522141</v>
       </c>
       <c r="K12" t="n">
-        <v>144.3374974159257</v>
+        <v>269.1676224029304</v>
       </c>
       <c r="L12" t="n">
-        <v>327.7437416982009</v>
+        <v>452.5738666852056</v>
       </c>
       <c r="M12" t="n">
-        <v>561.1270462342096</v>
+        <v>685.9571712212144</v>
       </c>
       <c r="N12" t="n">
-        <v>815.0959573033374</v>
+        <v>1014.008981706102</v>
       </c>
       <c r="O12" t="n">
-        <v>1025.208098878738</v>
+        <v>1224.121123281503</v>
       </c>
       <c r="P12" t="n">
-        <v>1174.508550063333</v>
+        <v>1373.421574466098</v>
       </c>
       <c r="Q12" t="n">
         <v>1423.305775802255</v>
       </c>
       <c r="R12" t="n">
-        <v>1415.666230257752</v>
+        <v>1423.305775802255</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.8682968852</v>
+        <v>1382.507842429703</v>
       </c>
       <c r="T12" t="n">
-        <v>1178.753619113598</v>
+        <v>1291.031544340985</v>
       </c>
       <c r="U12" t="n">
-        <v>1055.2674869018</v>
+        <v>1167.545412129187</v>
       </c>
       <c r="V12" t="n">
-        <v>820.115378670057</v>
+        <v>1037.03168358033</v>
       </c>
       <c r="W12" t="n">
-        <v>670.5164016247405</v>
+        <v>887.4327065350132</v>
       </c>
       <c r="X12" t="n">
-        <v>567.3032811020929</v>
+        <v>784.2195860123655</v>
       </c>
       <c r="Y12" t="n">
-        <v>464.1813620200242</v>
+        <v>681.0976669302968</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.956446444249</v>
+        <v>349.9564464442487</v>
       </c>
       <c r="C13" t="n">
-        <v>285.6586431992272</v>
+        <v>285.658643199227</v>
       </c>
       <c r="D13" t="n">
-        <v>240.1803834697767</v>
+        <v>240.1803834697765</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702687</v>
+        <v>196.9056695702686</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552436</v>
+        <v>154.6541017552435</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804658</v>
+        <v>90.86755274804659</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537672</v>
+        <v>42.86869074537671</v>
       </c>
       <c r="I13" t="n">
         <v>28.46611551604509</v>
       </c>
       <c r="J13" t="n">
-        <v>54.10813317477731</v>
+        <v>126.1088478974735</v>
       </c>
       <c r="K13" t="n">
-        <v>175.8708371231722</v>
+        <v>350.4276277730642</v>
       </c>
       <c r="L13" t="n">
-        <v>387.2116113483606</v>
+        <v>561.7684019982526</v>
       </c>
       <c r="M13" t="n">
-        <v>722.9860246274292</v>
+        <v>794.9867393501254</v>
       </c>
       <c r="N13" t="n">
-        <v>1058.649643534738</v>
+        <v>1028.094282330238</v>
       </c>
       <c r="O13" t="n">
-        <v>1257.94589351153</v>
+        <v>1227.39053230703</v>
       </c>
       <c r="P13" t="n">
-        <v>1404.957582628882</v>
+        <v>1374.402221424382</v>
       </c>
       <c r="Q13" t="n">
         <v>1423.305775802255</v>
@@ -5227,22 +5227,22 @@
         <v>1306.014213382111</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.800675175827</v>
+        <v>1185.800675175826</v>
       </c>
       <c r="U13" t="n">
-        <v>1001.296801144458</v>
+        <v>1001.296801144457</v>
       </c>
       <c r="V13" t="n">
-        <v>851.2506926214559</v>
+        <v>851.2506926214558</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673805</v>
+        <v>666.4719022673803</v>
       </c>
       <c r="X13" t="n">
-        <v>543.1207310522484</v>
+        <v>543.1207310522482</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916035</v>
+        <v>426.9665315916031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>563.8579916559609</v>
+        <v>1631.536773316676</v>
       </c>
       <c r="C14" t="n">
-        <v>299.5338543984344</v>
+        <v>1367.21263605915</v>
       </c>
       <c r="D14" t="n">
-        <v>45.90653547456903</v>
+        <v>1113.585317135285</v>
       </c>
       <c r="E14" t="n">
-        <v>43.48889573358655</v>
+        <v>871.3116558427985</v>
       </c>
       <c r="F14" t="n">
-        <v>43.48889573358655</v>
+        <v>564.9641307360762</v>
       </c>
       <c r="G14" t="n">
-        <v>43.48889573358655</v>
+        <v>252.9202798728072</v>
       </c>
       <c r="H14" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I14" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J14" t="n">
-        <v>98.45882737879911</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K14" t="n">
-        <v>231.5830236761723</v>
+        <v>398.9886726965253</v>
       </c>
       <c r="L14" t="n">
-        <v>569.4911018056171</v>
+        <v>601.0427717080289</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.666186508751</v>
+        <v>1139.217856411163</v>
       </c>
       <c r="N14" t="n">
-        <v>1372.923883002436</v>
+        <v>1404.475552904848</v>
       </c>
       <c r="O14" t="n">
-        <v>1610.063942731268</v>
+        <v>1641.61561263368</v>
       </c>
       <c r="P14" t="n">
-        <v>2096.537217511453</v>
+        <v>1886.345376758149</v>
       </c>
       <c r="Q14" t="n">
         <v>2174.444786679328</v>
@@ -5303,25 +5303,25 @@
         <v>2174.444786679328</v>
       </c>
       <c r="S14" t="n">
-        <v>2132.109627225959</v>
+        <v>2174.444786679328</v>
       </c>
       <c r="T14" t="n">
-        <v>2023.723445630804</v>
+        <v>2066.058605084173</v>
       </c>
       <c r="U14" t="n">
-        <v>1874.702566156233</v>
+        <v>1917.037725609603</v>
       </c>
       <c r="V14" t="n">
-        <v>1648.278058495548</v>
+        <v>1917.037725609603</v>
       </c>
       <c r="W14" t="n">
-        <v>1400.147782908319</v>
+        <v>1917.037725609603</v>
       </c>
       <c r="X14" t="n">
-        <v>1131.320404330124</v>
+        <v>1917.037725609603</v>
       </c>
       <c r="Y14" t="n">
-        <v>845.8194520371975</v>
+        <v>1631.536773316676</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>842.48865995258</v>
+        <v>733.1898968283745</v>
       </c>
       <c r="C15" t="n">
-        <v>668.035630671453</v>
+        <v>558.7368675472475</v>
       </c>
       <c r="D15" t="n">
-        <v>623.7396006930869</v>
+        <v>409.8024578859962</v>
       </c>
       <c r="E15" t="n">
-        <v>464.5021456876314</v>
+        <v>250.5650028805407</v>
       </c>
       <c r="F15" t="n">
-        <v>317.9675877145163</v>
+        <v>104.0304449074257</v>
       </c>
       <c r="G15" t="n">
-        <v>180.7431791048314</v>
+        <v>71.44441598062599</v>
       </c>
       <c r="H15" t="n">
-        <v>81.92285847098324</v>
+        <v>71.44441598062599</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J15" t="n">
-        <v>57.41076348275081</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3602776334671</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L15" t="n">
-        <v>342.7665219157424</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M15" t="n">
-        <v>576.1498264517511</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N15" t="n">
-        <v>1114.324911154885</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O15" t="n">
-        <v>1652.499995858018</v>
+        <v>1452.005478346549</v>
       </c>
       <c r="P15" t="n">
-        <v>1916.58407048468</v>
+        <v>1916.584070484681</v>
       </c>
       <c r="Q15" t="n">
         <v>2174.444786679328</v>
       </c>
       <c r="R15" t="n">
-        <v>2166.805241134825</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="S15" t="n">
-        <v>2021.368928079388</v>
+        <v>2126.007307762274</v>
       </c>
       <c r="T15" t="n">
-        <v>1929.892629990671</v>
+        <v>2034.531009673557</v>
       </c>
       <c r="U15" t="n">
         <v>1806.406497778873</v>
       </c>
       <c r="V15" t="n">
-        <v>1571.25438954713</v>
+        <v>1571.254389547131</v>
       </c>
       <c r="W15" t="n">
-        <v>1321.67741626025</v>
+        <v>1317.017032818929</v>
       </c>
       <c r="X15" t="n">
-        <v>1113.825916054717</v>
+        <v>1109.165532613396</v>
       </c>
       <c r="Y15" t="n">
-        <v>906.0656172897628</v>
+        <v>901.4052338484425</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.9792266617903</v>
+        <v>364.9792266617902</v>
       </c>
       <c r="C16" t="n">
         <v>300.6814234167686</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873181</v>
+        <v>255.203163687318</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878102</v>
+        <v>211.9284497878101</v>
       </c>
       <c r="F16" t="n">
         <v>169.676881972785</v>
@@ -5428,31 +5428,31 @@
         <v>105.8903329655881</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291819</v>
+        <v>57.8914709629182</v>
       </c>
       <c r="I16" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J16" t="n">
-        <v>43.48889573358655</v>
+        <v>141.1316281150149</v>
       </c>
       <c r="K16" t="n">
-        <v>165.2515996819815</v>
+        <v>262.8943320634098</v>
       </c>
       <c r="L16" t="n">
-        <v>479.1484498343656</v>
+        <v>576.7911822157939</v>
       </c>
       <c r="M16" t="n">
-        <v>712.3667871862384</v>
+        <v>810.0095195676668</v>
       </c>
       <c r="N16" t="n">
-        <v>971.1163478250839</v>
+        <v>1043.11706254778</v>
       </c>
       <c r="O16" t="n">
-        <v>1170.412597801876</v>
+        <v>1242.413312524571</v>
       </c>
       <c r="P16" t="n">
-        <v>1317.424286919228</v>
+        <v>1389.425001641924</v>
       </c>
       <c r="Q16" t="n">
         <v>1438.328556019796</v>
@@ -5461,7 +5461,7 @@
         <v>1420.668593437428</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.036993599653</v>
+        <v>1321.036993599652</v>
       </c>
       <c r="T16" t="n">
         <v>1200.823455393368</v>
@@ -5470,16 +5470,16 @@
         <v>1016.319581361999</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389973</v>
+        <v>866.2734728389972</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849219</v>
+        <v>681.4946824849218</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697898</v>
+        <v>558.1435112697897</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091449</v>
+        <v>441.9893118091447</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.961712394831</v>
+        <v>1189.754218123406</v>
       </c>
       <c r="C17" t="n">
-        <v>982.7473696066622</v>
+        <v>1005.539875335237</v>
       </c>
       <c r="D17" t="n">
-        <v>809.2298451521543</v>
+        <v>832.0223508807289</v>
       </c>
       <c r="E17" t="n">
-        <v>630.9822724347265</v>
+        <v>630.9822724347272</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7445417973615</v>
+        <v>404.7445417973622</v>
       </c>
       <c r="G17" t="n">
         <v>172.8104854034498</v>
       </c>
       <c r="H17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J17" t="n">
-        <v>195.0903785031095</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K17" t="n">
-        <v>649.1185332459359</v>
+        <v>438.926692492632</v>
       </c>
       <c r="L17" t="n">
-        <v>851.1726322574395</v>
+        <v>640.9807915041356</v>
       </c>
       <c r="M17" t="n">
-        <v>1107.666186508751</v>
+        <v>897.4743457554465</v>
       </c>
       <c r="N17" t="n">
-        <v>1372.923883002436</v>
+        <v>1162.732042249132</v>
       </c>
       <c r="O17" t="n">
-        <v>1610.063942731268</v>
+        <v>1399.872101977963</v>
       </c>
       <c r="P17" t="n">
-        <v>2096.537217511453</v>
+        <v>1886.345376758149</v>
       </c>
       <c r="Q17" t="n">
         <v>2174.444786679328</v>
@@ -5546,19 +5546,19 @@
         <v>2146.16839955353</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548317</v>
+        <v>2100.049820276891</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356988</v>
+        <v>1953.735107085563</v>
       </c>
       <c r="W17" t="n">
-        <v>1762.922120239117</v>
+        <v>1785.714625967692</v>
       </c>
       <c r="X17" t="n">
-        <v>1574.204536130279</v>
+        <v>1596.997041858854</v>
       </c>
       <c r="Y17" t="n">
-        <v>1368.81337830671</v>
+        <v>1391.605884035285</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>749.455621892613</v>
+        <v>711.0823103919321</v>
       </c>
       <c r="C18" t="n">
-        <v>575.002592611486</v>
+        <v>536.6292811108051</v>
       </c>
       <c r="D18" t="n">
-        <v>426.0681829502347</v>
+        <v>387.6948714495538</v>
       </c>
       <c r="E18" t="n">
-        <v>426.0681829502347</v>
+        <v>228.4574164440983</v>
       </c>
       <c r="F18" t="n">
-        <v>279.5336249771196</v>
+        <v>81.92285847098326</v>
       </c>
       <c r="G18" t="n">
-        <v>142.3092163674347</v>
+        <v>81.92285847098326</v>
       </c>
       <c r="H18" t="n">
-        <v>43.48889573358655</v>
+        <v>81.92285847098326</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J18" t="n">
-        <v>182.2408884697556</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K18" t="n">
-        <v>434.8289121077808</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L18" t="n">
-        <v>973.0039968109143</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M18" t="n">
-        <v>1511.179081514048</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.147992583175</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O18" t="n">
-        <v>1975.260134158576</v>
+        <v>1452.005478346549</v>
       </c>
       <c r="P18" t="n">
-        <v>2124.560585343171</v>
+        <v>1916.584070484681</v>
       </c>
       <c r="Q18" t="n">
         <v>2174.444786679328</v>
       </c>
       <c r="R18" t="n">
-        <v>2166.805241134825</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="S18" t="n">
-        <v>2021.368928079388</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="T18" t="n">
-        <v>1825.254250307785</v>
+        <v>2012.423423237114</v>
       </c>
       <c r="U18" t="n">
-        <v>1637.92404869087</v>
+        <v>1784.298911342431</v>
       </c>
       <c r="V18" t="n">
-        <v>1402.771940459127</v>
+        <v>1549.146803110688</v>
       </c>
       <c r="W18" t="n">
-        <v>1333.282757883168</v>
+        <v>1294.909446382487</v>
       </c>
       <c r="X18" t="n">
-        <v>1125.431257677635</v>
+        <v>1087.057946176954</v>
       </c>
       <c r="Y18" t="n">
-        <v>917.670958912681</v>
+        <v>879.2976474120001</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>238.5188530291655</v>
+        <v>482.6171497463945</v>
       </c>
       <c r="C19" t="n">
-        <v>69.58267010125854</v>
+        <v>482.6171497463945</v>
       </c>
       <c r="D19" t="n">
-        <v>69.58267010125854</v>
+        <v>332.5005103340588</v>
       </c>
       <c r="E19" t="n">
-        <v>43.48889573358655</v>
+        <v>332.5005103340588</v>
       </c>
       <c r="F19" t="n">
-        <v>43.48889573358655</v>
+        <v>332.5005103340588</v>
       </c>
       <c r="G19" t="n">
-        <v>43.48889573358655</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H19" t="n">
-        <v>43.48889573358655</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="I19" t="n">
-        <v>43.48889573358655</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="J19" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="K19" t="n">
         <v>165.2515996819815</v>
@@ -5695,28 +5695,28 @@
         <v>1207.574386506672</v>
       </c>
       <c r="R19" t="n">
-        <v>1207.574386506672</v>
+        <v>1085.276044241419</v>
       </c>
       <c r="S19" t="n">
-        <v>1188.052581138254</v>
+        <v>881.0060647207581</v>
       </c>
       <c r="T19" t="n">
-        <v>1147.948837401327</v>
+        <v>840.9023209838314</v>
       </c>
       <c r="U19" t="n">
-        <v>1043.554757839315</v>
+        <v>736.5082414218192</v>
       </c>
       <c r="V19" t="n">
-        <v>973.6184437856707</v>
+        <v>666.5719273681749</v>
       </c>
       <c r="W19" t="n">
-        <v>684.20127374871</v>
+        <v>561.9029314834569</v>
       </c>
       <c r="X19" t="n">
-        <v>456.2117228506927</v>
+        <v>518.6615547376821</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.1673178594052</v>
+        <v>482.6171497463945</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1166.961712394831</v>
       </c>
       <c r="C20" t="n">
-        <v>982.7473696066622</v>
+        <v>1005.539875335236</v>
       </c>
       <c r="D20" t="n">
-        <v>809.2298451521544</v>
+        <v>832.022350880728</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9822724347265</v>
+        <v>630.9822724347264</v>
       </c>
       <c r="F20" t="n">
         <v>404.7445417973615</v>
@@ -5744,31 +5744,31 @@
         <v>172.8104854034498</v>
       </c>
       <c r="H20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J20" t="n">
-        <v>265.8644763991521</v>
+        <v>214.9593119742627</v>
       </c>
       <c r="K20" t="n">
-        <v>686.0177238838812</v>
+        <v>348.0835082716359</v>
       </c>
       <c r="L20" t="n">
-        <v>888.0718228953849</v>
+        <v>550.1376072831395</v>
       </c>
       <c r="M20" t="n">
-        <v>1426.246907598518</v>
+        <v>806.6311615344504</v>
       </c>
       <c r="N20" t="n">
-        <v>1691.504604092204</v>
+        <v>1071.888858028135</v>
       </c>
       <c r="O20" t="n">
-        <v>1928.644663821035</v>
+        <v>1610.063942731269</v>
       </c>
       <c r="P20" t="n">
-        <v>2096.537217511453</v>
+        <v>2096.537217511455</v>
       </c>
       <c r="Q20" t="n">
         <v>2174.444786679328</v>
@@ -5786,7 +5786,7 @@
         <v>2077.257314548317</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356988</v>
+        <v>1930.942601356989</v>
       </c>
       <c r="W20" t="n">
         <v>1762.922120239117</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>716.300857159348</v>
+        <v>672.6483476545353</v>
       </c>
       <c r="C21" t="n">
-        <v>541.847827878221</v>
+        <v>498.1953183734083</v>
       </c>
       <c r="D21" t="n">
-        <v>392.9134182169697</v>
+        <v>349.2609087121571</v>
       </c>
       <c r="E21" t="n">
-        <v>288.8437743405498</v>
+        <v>190.0234537067016</v>
       </c>
       <c r="F21" t="n">
-        <v>142.3092163674347</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="G21" t="n">
-        <v>142.3092163674347</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="H21" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="J21" t="n">
-        <v>57.41076348275081</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3602776334671</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5353623366007</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M21" t="n">
-        <v>930.9186668726094</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N21" t="n">
-        <v>1469.093751575743</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O21" t="n">
-        <v>1679.205893151144</v>
+        <v>1452.005478346549</v>
       </c>
       <c r="P21" t="n">
-        <v>2124.560585343171</v>
+        <v>1916.584070484681</v>
       </c>
       <c r="Q21" t="n">
         <v>2174.444786679328</v>
       </c>
       <c r="R21" t="n">
-        <v>2174.444786679328</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="S21" t="n">
-        <v>2029.00847362389</v>
+        <v>2166.805241134826</v>
       </c>
       <c r="T21" t="n">
-        <v>1832.893795852288</v>
+        <v>1973.989460499718</v>
       </c>
       <c r="U21" t="n">
-        <v>1604.769283957604</v>
+        <v>1745.864948605034</v>
       </c>
       <c r="V21" t="n">
-        <v>1369.617175725862</v>
+        <v>1510.712840373292</v>
       </c>
       <c r="W21" t="n">
-        <v>1115.37981899766</v>
+        <v>1256.47548364509</v>
       </c>
       <c r="X21" t="n">
-        <v>907.5283187921273</v>
+        <v>1048.623983439557</v>
       </c>
       <c r="Y21" t="n">
-        <v>884.5161941794159</v>
+        <v>840.8636846746033</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.77067887692303</v>
+        <v>482.6171497463945</v>
       </c>
       <c r="C22" t="n">
-        <v>53.77067887692303</v>
+        <v>482.6171497463945</v>
       </c>
       <c r="D22" t="n">
-        <v>53.77067887692303</v>
+        <v>482.6171497463945</v>
       </c>
       <c r="E22" t="n">
-        <v>43.48889573358655</v>
+        <v>334.7040561640014</v>
       </c>
       <c r="F22" t="n">
-        <v>43.48889573358655</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48889573358655</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H22" t="n">
-        <v>43.48889573358655</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="I22" t="n">
-        <v>43.48889573358655</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="J22" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358657</v>
       </c>
       <c r="K22" t="n">
         <v>165.2515996819815</v>
@@ -5932,28 +5932,28 @@
         <v>1207.574386506672</v>
       </c>
       <c r="R22" t="n">
-        <v>1207.574386506672</v>
+        <v>1085.276044241419</v>
       </c>
       <c r="S22" t="n">
-        <v>1003.304406986011</v>
+        <v>881.0060647207581</v>
       </c>
       <c r="T22" t="n">
-        <v>778.4524890968421</v>
+        <v>840.9023209838314</v>
       </c>
       <c r="U22" t="n">
-        <v>489.3102353825875</v>
+        <v>736.5082414218192</v>
       </c>
       <c r="V22" t="n">
-        <v>419.3739213289431</v>
+        <v>666.5719273681749</v>
       </c>
       <c r="W22" t="n">
-        <v>314.7049254442251</v>
+        <v>561.9029314834569</v>
       </c>
       <c r="X22" t="n">
-        <v>271.4635486984503</v>
+        <v>518.6615547376821</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.4191437071627</v>
+        <v>482.6171497463945</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>832.4875040588618</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128605</v>
+        <v>631.4474256128601</v>
       </c>
       <c r="F23" t="n">
-        <v>405.2096949754955</v>
+        <v>405.2096949754952</v>
       </c>
       <c r="G23" t="n">
         <v>173.275638581584</v>
@@ -5987,25 +5987,25 @@
         <v>43.95404891172071</v>
       </c>
       <c r="J23" t="n">
-        <v>98.92398055693327</v>
+        <v>266.3296295772863</v>
       </c>
       <c r="K23" t="n">
-        <v>232.0481768543065</v>
+        <v>399.4538258746594</v>
       </c>
       <c r="L23" t="n">
-        <v>775.9795321368503</v>
+        <v>601.507924886163</v>
       </c>
       <c r="M23" t="n">
-        <v>1032.473086388161</v>
+        <v>858.0014791374738</v>
       </c>
       <c r="N23" t="n">
-        <v>1297.730782881846</v>
+        <v>1123.259175631159</v>
       </c>
       <c r="O23" t="n">
-        <v>1534.870842610678</v>
+        <v>1398.161510836078</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.344117390864</v>
+        <v>1884.634785616264</v>
       </c>
       <c r="Q23" t="n">
         <v>2172.734195537443</v>
@@ -6066,22 +6066,22 @@
         <v>43.95404891172071</v>
       </c>
       <c r="J24" t="n">
-        <v>57.87591666088497</v>
+        <v>182.7060416478897</v>
       </c>
       <c r="K24" t="n">
-        <v>159.8254308116013</v>
+        <v>546.4761404410588</v>
       </c>
       <c r="L24" t="n">
-        <v>703.7567860941451</v>
+        <v>729.8823847233339</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.688141376689</v>
+        <v>963.2656892593425</v>
       </c>
       <c r="N24" t="n">
-        <v>1501.657052445817</v>
+        <v>1217.23460032847</v>
       </c>
       <c r="O24" t="n">
-        <v>1790.541278206794</v>
+        <v>1761.165955611014</v>
       </c>
       <c r="P24" t="n">
         <v>1939.841729391388</v>
@@ -6093,22 +6093,22 @@
         <v>2190.062900041533</v>
       </c>
       <c r="S24" t="n">
-        <v>2044.626586986096</v>
+        <v>2190.062900041533</v>
       </c>
       <c r="T24" t="n">
-        <v>1848.511909214493</v>
+        <v>2111.679022287537</v>
       </c>
       <c r="U24" t="n">
-        <v>1620.38739731981</v>
+        <v>1883.554510392853</v>
       </c>
       <c r="V24" t="n">
-        <v>1463.654228008868</v>
+        <v>1648.402402161111</v>
       </c>
       <c r="W24" t="n">
-        <v>1209.416871280666</v>
+        <v>1394.165045432909</v>
       </c>
       <c r="X24" t="n">
-        <v>1001.565371075134</v>
+        <v>1186.313545227376</v>
       </c>
       <c r="Y24" t="n">
         <v>978.5532464624223</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.0837926458271</v>
+        <v>370.0293236091286</v>
       </c>
       <c r="C25" t="n">
-        <v>199.0837926458271</v>
+        <v>370.0293236091286</v>
       </c>
       <c r="D25" t="n">
-        <v>48.96715323349137</v>
+        <v>370.0293236091286</v>
       </c>
       <c r="E25" t="n">
-        <v>48.96715323349137</v>
+        <v>370.0293236091286</v>
       </c>
       <c r="F25" t="n">
-        <v>48.96715323349137</v>
+        <v>370.0293236091286</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96715323349137</v>
+        <v>201.6043949190465</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96715323349137</v>
+        <v>48.96715323349139</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96715323349137</v>
+        <v>48.96715323349139</v>
       </c>
       <c r="J25" t="n">
         <v>43.95404891172071</v>
@@ -6172,25 +6172,25 @@
         <v>1208.039539684806</v>
       </c>
       <c r="S25" t="n">
-        <v>1188.517734316388</v>
+        <v>1003.769560164146</v>
       </c>
       <c r="T25" t="n">
-        <v>963.6658164272189</v>
+        <v>778.9176422749763</v>
       </c>
       <c r="U25" t="n">
-        <v>674.5235627129643</v>
+        <v>674.5235627129641</v>
       </c>
       <c r="V25" t="n">
-        <v>419.8390745070775</v>
+        <v>604.5872486593198</v>
       </c>
       <c r="W25" t="n">
-        <v>315.1700786223594</v>
+        <v>499.9182527746017</v>
       </c>
       <c r="X25" t="n">
-        <v>271.9287018765846</v>
+        <v>406.0737286004161</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.8842968852971</v>
+        <v>370.0293236091286</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.612319227322</v>
+        <v>1871.612319227324</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.759596756268</v>
+        <v>1582.759596756269</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.603692618874</v>
+        <v>1304.603692618876</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899878</v>
+        <v>998.9252344899892</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697379</v>
+        <v>668.0491241697389</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929413</v>
+        <v>331.4766880929419</v>
       </c>
       <c r="H26" t="n">
-        <v>97.5167187401929</v>
+        <v>97.51671874019297</v>
       </c>
       <c r="I26" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
-        <v>128.5384875643908</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K26" t="n">
-        <v>261.662683861764</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L26" t="n">
-        <v>865.0115179592399</v>
+        <v>1365.510992744019</v>
       </c>
       <c r="M26" t="n">
-        <v>1566.523470368455</v>
+        <v>1622.00454699533</v>
       </c>
       <c r="N26" t="n">
-        <v>2264.754622030005</v>
+        <v>2264.754622030006</v>
       </c>
       <c r="O26" t="n">
-        <v>2878.886861208954</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P26" t="n">
-        <v>3365.36013598914</v>
+        <v>3365.360135989141</v>
       </c>
       <c r="Q26" t="n">
-        <v>3653.459545910319</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R26" t="n">
-        <v>3678.427795958912</v>
+        <v>3678.427795958913</v>
       </c>
       <c r="S26" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T26" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U26" t="n">
-        <v>3305.099819795234</v>
+        <v>3305.099819795235</v>
       </c>
       <c r="V26" t="n">
-        <v>3054.14672692102</v>
+        <v>3054.146726921022</v>
       </c>
       <c r="W26" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120265</v>
       </c>
       <c r="X26" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.131902328543</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.102364822087</v>
+        <v>2178.102364822088</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I27" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J27" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K27" t="n">
-        <v>314.2700628060635</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L27" t="n">
-        <v>497.6763070883387</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.645552318846</v>
+        <v>1441.217988060473</v>
       </c>
       <c r="N27" t="n">
-        <v>1903.163413988091</v>
+        <v>1695.186899129601</v>
       </c>
       <c r="O27" t="n">
-        <v>2113.275555563492</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P27" t="n">
-        <v>2577.854147701624</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q27" t="n">
         <v>2627.738349037781</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.7589833420768</v>
+        <v>566.758983342077</v>
       </c>
       <c r="C28" t="n">
-        <v>477.9325948835273</v>
+        <v>477.9325948835274</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9257499405489</v>
+        <v>407.9257499405491</v>
       </c>
       <c r="E28" t="n">
-        <v>340.1224508275131</v>
+        <v>340.1224508275133</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3422977989601</v>
+        <v>273.3422977989603</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0271635782354</v>
+        <v>185.0271635782355</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4997163620377</v>
+        <v>112.4997163620378</v>
       </c>
       <c r="I28" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J28" t="n">
         <v>147.1708219328279</v>
@@ -6391,7 +6391,7 @@
         <v>637.3055192252455</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365355</v>
+        <v>949.0394661365353</v>
       </c>
       <c r="N28" t="n">
         <v>1260.662618676065</v>
@@ -6400,34 +6400,34 @@
         <v>1538.474478212274</v>
       </c>
       <c r="P28" t="n">
-        <v>1764.001776889043</v>
+        <v>1764.001776889044</v>
       </c>
       <c r="Q28" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621834</v>
       </c>
       <c r="R28" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825938</v>
       </c>
       <c r="S28" t="n">
         <v>1694.516846774634</v>
       </c>
       <c r="T28" t="n">
-        <v>1549.774723354822</v>
+        <v>1549.774723354823</v>
       </c>
       <c r="U28" t="n">
         <v>1340.742264109925</v>
       </c>
       <c r="V28" t="n">
-        <v>1166.167570373395</v>
+        <v>1166.167570373396</v>
       </c>
       <c r="W28" t="n">
-        <v>956.8601948057918</v>
+        <v>956.8601948057923</v>
       </c>
       <c r="X28" t="n">
-        <v>808.9804383771318</v>
+        <v>808.9804383771323</v>
       </c>
       <c r="Y28" t="n">
-        <v>668.2976537029591</v>
+        <v>668.2976537029595</v>
       </c>
     </row>
     <row r="29">
@@ -6440,55 +6440,55 @@
         <v>1871.612319227323</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.759596756269</v>
+        <v>1582.759596756268</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.603692618876</v>
+        <v>1304.603692618875</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899887</v>
+        <v>998.9252344899886</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697387</v>
+        <v>668.0491241697384</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4766880929417</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5167187401929</v>
+        <v>97.51671874019294</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J29" t="n">
-        <v>128.5384875643908</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K29" t="n">
-        <v>261.6626838617639</v>
+        <v>694.4912147006952</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2013852782134</v>
+        <v>1310.029916117145</v>
       </c>
       <c r="M29" t="n">
-        <v>1578.713337687429</v>
+        <v>1566.523470368455</v>
       </c>
       <c r="N29" t="n">
         <v>2264.754622030005</v>
       </c>
       <c r="O29" t="n">
-        <v>2878.886861208954</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P29" t="n">
         <v>3365.36013598914</v>
       </c>
       <c r="Q29" t="n">
-        <v>3653.459545910319</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R29" t="n">
         <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T29" t="n">
         <v>3478.649284483333</v>
@@ -6503,7 +6503,7 @@
         <v>2781.487866120264</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.131902328542</v>
+        <v>2488.131902328541</v>
       </c>
       <c r="Y29" t="n">
         <v>2178.102364822087</v>
@@ -6537,19 +6537,19 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J30" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K30" t="n">
-        <v>314.2700628060635</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L30" t="n">
-        <v>497.6763070883386</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M30" t="n">
-        <v>1192.107624736847</v>
+        <v>1441.217988060473</v>
       </c>
       <c r="N30" t="n">
         <v>1695.186899129601</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420765</v>
+        <v>566.7589833420766</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835269</v>
+        <v>477.932594883527</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405485</v>
+        <v>407.9257499405486</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1224508275128</v>
+        <v>340.1224508275129</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989598</v>
+        <v>273.3422977989599</v>
       </c>
       <c r="G31" t="n">
         <v>185.0271635782351</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4997163620374</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J31" t="n">
         <v>147.1708219328279</v>
@@ -6628,7 +6628,7 @@
         <v>637.3055192252455</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365355</v>
+        <v>949.0394661365353</v>
       </c>
       <c r="N31" t="n">
         <v>1260.662618676065</v>
@@ -6661,10 +6661,10 @@
         <v>956.8601948057915</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771316</v>
+        <v>808.9804383771315</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029588</v>
+        <v>668.297653702959</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.612319227322</v>
+        <v>1871.612319227323</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.759596756267</v>
+        <v>1582.759596756268</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.603692618874</v>
+        <v>1304.603692618875</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899876</v>
+        <v>998.9252344899884</v>
       </c>
       <c r="F32" t="n">
-        <v>668.0491241697378</v>
+        <v>668.0491241697382</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929413</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019289</v>
+        <v>97.51671874019291</v>
       </c>
       <c r="I32" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J32" t="n">
         <v>295.9441365847438</v>
       </c>
       <c r="K32" t="n">
-        <v>662.9574189477364</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L32" t="n">
-        <v>865.01151795924</v>
+        <v>952.0263903390736</v>
       </c>
       <c r="M32" t="n">
         <v>1566.523470368455</v>
@@ -6713,37 +6713,37 @@
         <v>2264.754622030005</v>
       </c>
       <c r="O32" t="n">
-        <v>2878.886861208954</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P32" t="n">
         <v>3365.36013598914</v>
       </c>
       <c r="Q32" t="n">
-        <v>3653.459545910319</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R32" t="n">
         <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T32" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U32" t="n">
         <v>3305.099819795234</v>
       </c>
       <c r="V32" t="n">
-        <v>3054.14672692102</v>
+        <v>3054.146726921021</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X32" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328541</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.102364822086</v>
+        <v>2178.102364822087</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I33" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J33" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K33" t="n">
-        <v>576.0906474485163</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L33" t="n">
-        <v>759.4968917307914</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M33" t="n">
-        <v>992.8801962668</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N33" t="n">
-        <v>1721.398057936045</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O33" t="n">
-        <v>1931.510199511446</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P33" t="n">
-        <v>2396.088791649579</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q33" t="n">
         <v>2627.738349037781</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420766</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835271</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405488</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E34" t="n">
-        <v>340.122450827513</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F34" t="n">
         <v>273.3422977989601</v>
@@ -6853,7 +6853,7 @@
         <v>112.4997163620377</v>
       </c>
       <c r="I34" t="n">
-        <v>73.56855591917824</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J34" t="n">
         <v>147.170821932828</v>
@@ -6862,13 +6862,13 @@
         <v>347.44913544064</v>
       </c>
       <c r="L34" t="n">
-        <v>637.3055192252455</v>
+        <v>637.3055192252452</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365355</v>
+        <v>949.0394661365352</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.662618676066</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O34" t="n">
         <v>1538.474478212274</v>
@@ -6883,25 +6883,25 @@
         <v>1818.677031825937</v>
       </c>
       <c r="S34" t="n">
-        <v>1694.516846774633</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T34" t="n">
         <v>1549.774723354822</v>
       </c>
       <c r="U34" t="n">
-        <v>1340.742264109924</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V34" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057915</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771316</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029589</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1168.185123148577</v>
       </c>
       <c r="D35" t="n">
-        <v>963.8659528137397</v>
+        <v>963.8659528137391</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874082</v>
+        <v>732.0242284874079</v>
       </c>
       <c r="F35" t="n">
-        <v>474.9848519697134</v>
+        <v>474.9848519697132</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954706</v>
@@ -6935,22 +6935,22 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J35" t="n">
-        <v>107.0958457904901</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K35" t="n">
-        <v>396.0732407078807</v>
+        <v>482.2129797806845</v>
       </c>
       <c r="L35" t="n">
-        <v>1011.61194212433</v>
+        <v>684.267078792188</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.105496375641</v>
+        <v>1329.325266339999</v>
       </c>
       <c r="N35" t="n">
-        <v>1913.163683923451</v>
+        <v>1594.582962833684</v>
       </c>
       <c r="O35" t="n">
-        <v>2150.303743652283</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P35" t="n">
         <v>2318.196297342701</v>
@@ -6974,7 +6974,7 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X35" t="n">
         <v>1852.047227313184</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471557</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660287</v>
       </c>
       <c r="D36" t="n">
-        <v>632.376619104778</v>
+        <v>632.3766191047775</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1391640993224</v>
+        <v>473.139164099322</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262074</v>
+        <v>326.604606126207</v>
       </c>
       <c r="G36" t="n">
         <v>189.3801975165225</v>
@@ -7014,22 +7014,22 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J36" t="n">
-        <v>66.04778189444184</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K36" t="n">
-        <v>429.8178806876109</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L36" t="n">
-        <v>613.224124969886</v>
+        <v>738.0542499568908</v>
       </c>
       <c r="M36" t="n">
-        <v>1258.282312517696</v>
+        <v>971.4375544928994</v>
       </c>
       <c r="N36" t="n">
-        <v>1599.098702225276</v>
+        <v>1616.49574204071</v>
       </c>
       <c r="O36" t="n">
-        <v>2199.134539884639</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P36" t="n">
         <v>2348.434991069233</v>
@@ -7044,7 +7044,7 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.105170892338</v>
       </c>
       <c r="U36" t="n">
         <v>2028.980658997655</v>
@@ -7053,7 +7053,7 @@
         <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X36" t="n">
         <v>1331.739693832178</v>
@@ -7075,22 +7075,22 @@
         <v>386.0510439270392</v>
       </c>
       <c r="D37" t="n">
-        <v>361.4073556437503</v>
+        <v>235.9344045147035</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4942620613572</v>
+        <v>235.9344045147035</v>
       </c>
       <c r="F37" t="n">
-        <v>66.60431456344689</v>
+        <v>89.04445701679316</v>
       </c>
       <c r="G37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="J37" t="n">
         <v>52.12591414527761</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137383</v>
+        <v>963.8659528137393</v>
       </c>
       <c r="E38" t="n">
-        <v>732.0242284874068</v>
+        <v>732.0242284874079</v>
       </c>
       <c r="F38" t="n">
-        <v>474.9848519697121</v>
+        <v>474.9848519697131</v>
       </c>
       <c r="G38" t="n">
         <v>212.2491496954706</v>
       </c>
       <c r="H38" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I38" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J38" t="n">
-        <v>107.0958457904901</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K38" t="n">
-        <v>561.1240005333163</v>
+        <v>728.5296495536694</v>
       </c>
       <c r="L38" t="n">
-        <v>1176.662701949766</v>
+        <v>930.583748565173</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.156256201077</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N38" t="n">
-        <v>1913.16368392345</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O38" t="n">
-        <v>2150.303743652282</v>
+        <v>1806.754772513923</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.1962973427</v>
+        <v>2293.228047294109</v>
       </c>
       <c r="Q38" t="n">
-        <v>2606.295707263879</v>
+        <v>2581.327457215288</v>
       </c>
       <c r="R38" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="S38" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="T38" t="n">
-        <v>2547.217674257752</v>
+        <v>2547.217674257753</v>
       </c>
       <c r="U38" t="n">
-        <v>2447.504943372209</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.388584300551</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.764058047155</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C39" t="n">
-        <v>781.311028766028</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D39" t="n">
-        <v>632.3766191047768</v>
+        <v>632.376619104778</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1391640993212</v>
+        <v>473.1391640993224</v>
       </c>
       <c r="F39" t="n">
-        <v>326.6046061262062</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G39" t="n">
-        <v>189.3801975165214</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H39" t="n">
-        <v>90.55987688267318</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I39" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
         <v>190.8779068814466</v>
       </c>
       <c r="K39" t="n">
-        <v>452.741093997671</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L39" t="n">
-        <v>1003.279280130371</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M39" t="n">
-        <v>1236.662584666379</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N39" t="n">
-        <v>1881.720772214189</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O39" t="n">
-        <v>2091.83291378959</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P39" t="n">
-        <v>2556.411505927722</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q39" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R39" t="n">
-        <v>2598.656161719377</v>
+        <v>2598.656161719378</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.21984866394</v>
+        <v>2453.219848663941</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.105170892337</v>
+        <v>2257.105170892339</v>
       </c>
       <c r="U39" t="n">
-        <v>2028.980658997654</v>
+        <v>2028.980658997655</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.828550765911</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W39" t="n">
-        <v>1539.59119403771</v>
+        <v>1539.591194037711</v>
       </c>
       <c r="X39" t="n">
-        <v>1331.739693832177</v>
+        <v>1331.739693832178</v>
       </c>
       <c r="Y39" t="n">
-        <v>1123.979395067223</v>
+        <v>1123.979395067224</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.0941703111204</v>
+        <v>554.9872268549461</v>
       </c>
       <c r="C40" t="n">
-        <v>232.1045156551262</v>
+        <v>386.0510439270392</v>
       </c>
       <c r="D40" t="n">
-        <v>232.1045156551262</v>
+        <v>235.9344045147035</v>
       </c>
       <c r="E40" t="n">
-        <v>84.19142207273313</v>
+        <v>88.0213109323104</v>
       </c>
       <c r="F40" t="n">
-        <v>84.19142207273313</v>
+        <v>66.60431456344689</v>
       </c>
       <c r="G40" t="n">
-        <v>69.71302165456385</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="H40" t="n">
-        <v>69.71302165456385</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I40" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J40" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="K40" t="n">
         <v>173.8886180936725</v>
@@ -7339,16 +7339,16 @@
         <v>385.2293923188608</v>
       </c>
       <c r="M40" t="n">
-        <v>618.4477296707336</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N40" t="n">
-        <v>851.5552726508466</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O40" t="n">
         <v>1050.851522627638</v>
       </c>
       <c r="P40" t="n">
-        <v>1197.86321174499</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q40" t="n">
         <v>1216.211404918363</v>
@@ -7360,22 +7360,22 @@
         <v>1165.887953669615</v>
       </c>
       <c r="T40" t="n">
-        <v>1094.982564052358</v>
+        <v>1094.982564052359</v>
       </c>
       <c r="U40" t="n">
-        <v>805.8403103381038</v>
+        <v>959.7868386100167</v>
       </c>
       <c r="V40" t="n">
-        <v>705.1023504041298</v>
+        <v>859.0488786760427</v>
       </c>
       <c r="W40" t="n">
-        <v>569.6317086390819</v>
+        <v>723.5782369109949</v>
       </c>
       <c r="X40" t="n">
-        <v>341.6421577410646</v>
+        <v>649.5352142848903</v>
       </c>
       <c r="Y40" t="n">
-        <v>274.7961068694473</v>
+        <v>582.689163413273</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137387</v>
+        <v>963.865952813739</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874073</v>
+        <v>732.0242284874075</v>
       </c>
       <c r="F41" t="n">
-        <v>474.984851969713</v>
+        <v>474.9848519697127</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954706</v>
@@ -7409,22 +7409,22 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J41" t="n">
-        <v>107.0958457904901</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K41" t="n">
-        <v>561.1240005333163</v>
+        <v>407.6256911082163</v>
       </c>
       <c r="L41" t="n">
-        <v>1176.662701949766</v>
+        <v>609.6797901197199</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.156256201077</v>
+        <v>866.1733443710307</v>
       </c>
       <c r="N41" t="n">
-        <v>2078.214443748887</v>
+        <v>1511.231531918841</v>
       </c>
       <c r="O41" t="n">
-        <v>2335.527334356997</v>
+        <v>2016.946613267229</v>
       </c>
       <c r="P41" t="n">
         <v>2503.419888047415</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.7640580471557</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C42" t="n">
-        <v>781.3110287660287</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D42" t="n">
-        <v>632.3766191047775</v>
+        <v>632.376619104778</v>
       </c>
       <c r="E42" t="n">
-        <v>473.139164099322</v>
+        <v>473.1391640993224</v>
       </c>
       <c r="F42" t="n">
-        <v>326.604606126207</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G42" t="n">
         <v>189.3801975165225</v>
@@ -7491,22 +7491,22 @@
         <v>190.8779068814466</v>
       </c>
       <c r="K42" t="n">
-        <v>292.8274210321629</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L42" t="n">
-        <v>843.3656071648625</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M42" t="n">
-        <v>1076.748911700871</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N42" t="n">
-        <v>1721.807099248681</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O42" t="n">
-        <v>2091.832913789592</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P42" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
@@ -7518,7 +7518,7 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.105170892338</v>
+        <v>2257.105170892339</v>
       </c>
       <c r="U42" t="n">
         <v>2028.980658997655</v>
@@ -7527,7 +7527,7 @@
         <v>1793.828550765912</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.59119403771</v>
+        <v>1539.591194037711</v>
       </c>
       <c r="X42" t="n">
         <v>1331.739693832178</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382.4304449892642</v>
+        <v>236.7237129535474</v>
       </c>
       <c r="C43" t="n">
-        <v>367.4407903332701</v>
+        <v>221.7340582975533</v>
       </c>
       <c r="D43" t="n">
-        <v>367.4407903332701</v>
+        <v>71.61741888521757</v>
       </c>
       <c r="E43" t="n">
-        <v>367.4407903332701</v>
+        <v>71.61741888521757</v>
       </c>
       <c r="F43" t="n">
-        <v>220.5508428353597</v>
+        <v>71.61741888521757</v>
       </c>
       <c r="G43" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="H43" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="I43" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704829</v>
       </c>
       <c r="J43" t="n">
         <v>52.12591414527761</v>
@@ -7597,22 +7597,22 @@
         <v>1165.887953669615</v>
       </c>
       <c r="T43" t="n">
-        <v>941.0360357804459</v>
+        <v>1094.982564052359</v>
       </c>
       <c r="U43" t="n">
-        <v>805.840310338104</v>
+        <v>959.7868386100167</v>
       </c>
       <c r="V43" t="n">
-        <v>686.4920968103607</v>
+        <v>859.0488786760427</v>
       </c>
       <c r="W43" t="n">
-        <v>551.0214550453129</v>
+        <v>723.5782369109949</v>
       </c>
       <c r="X43" t="n">
-        <v>476.9784324192084</v>
+        <v>639.1647569273173</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.1323815475911</v>
+        <v>418.3721777837872</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>52.12591414527758</v>
       </c>
       <c r="J44" t="n">
-        <v>107.0958457904901</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K44" t="n">
-        <v>561.1240005333163</v>
+        <v>457.2447297320911</v>
       </c>
       <c r="L44" t="n">
-        <v>894.4589195454928</v>
+        <v>659.2988287435946</v>
       </c>
       <c r="M44" t="n">
-        <v>1539.517107093303</v>
+        <v>1304.357016291405</v>
       </c>
       <c r="N44" t="n">
-        <v>1804.774803586988</v>
+        <v>1569.61471278509</v>
       </c>
       <c r="O44" t="n">
-        <v>2041.91486331582</v>
+        <v>1806.754772513922</v>
       </c>
       <c r="P44" t="n">
-        <v>2528.388138096006</v>
+        <v>2293.228047294107</v>
       </c>
       <c r="Q44" t="n">
-        <v>2606.295707263879</v>
+        <v>2581.327457215287</v>
       </c>
       <c r="R44" t="n">
         <v>2606.295707263879</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.764058047156</v>
+        <v>955.764058047155</v>
       </c>
       <c r="C45" t="n">
-        <v>781.311028766029</v>
+        <v>781.311028766028</v>
       </c>
       <c r="D45" t="n">
-        <v>632.3766191047778</v>
+        <v>632.3766191047768</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1391640993223</v>
+        <v>473.1391640993212</v>
       </c>
       <c r="F45" t="n">
-        <v>326.6046061262073</v>
+        <v>326.6046061262062</v>
       </c>
       <c r="G45" t="n">
-        <v>189.3801975165225</v>
+        <v>189.3801975165214</v>
       </c>
       <c r="H45" t="n">
         <v>90.55987688267427</v>
@@ -7725,52 +7725,52 @@
         <v>52.12591414527758</v>
       </c>
       <c r="J45" t="n">
-        <v>66.04778189444181</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K45" t="n">
-        <v>429.8178806876109</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L45" t="n">
-        <v>700.0716036083375</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1345.129791156148</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N45" t="n">
-        <v>1599.098702225275</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.134539884638</v>
+        <v>1883.8563989311</v>
       </c>
       <c r="P45" t="n">
-        <v>2348.434991069233</v>
+        <v>2348.434991069232</v>
       </c>
       <c r="Q45" t="n">
-        <v>2606.29570726388</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="R45" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719377</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.21984866394</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.105170892338</v>
+        <v>2257.105170892337</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997654</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765911</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832177</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067223</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.0941703111203</v>
+        <v>401.0406985830331</v>
       </c>
       <c r="C46" t="n">
-        <v>232.1045156551262</v>
+        <v>386.051043927039</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4942620613572</v>
+        <v>235.9344045147032</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4942620613572</v>
+        <v>235.9344045147032</v>
       </c>
       <c r="F46" t="n">
-        <v>66.60431456344686</v>
+        <v>235.9344045147032</v>
       </c>
       <c r="G46" t="n">
-        <v>52.12591414527758</v>
+        <v>67.50947582462115</v>
       </c>
       <c r="H46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="I46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.13901846704826</v>
       </c>
       <c r="J46" t="n">
         <v>52.12591414527758</v>
@@ -7846,10 +7846,10 @@
         <v>723.5782369109946</v>
       </c>
       <c r="X46" t="n">
-        <v>495.5886860129773</v>
+        <v>649.5352142848901</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.74263514136</v>
+        <v>582.6891634132728</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>74.83121153107095</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.9222468714798</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>137.2262415332738</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>284.5267984361844</v>
+        <v>284.5267984361848</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>77.61334387277918</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>287.0769430646524</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>331.3767102300329</v>
+        <v>25.37766628364847</v>
       </c>
       <c r="P15" t="n">
-        <v>115.9430539818865</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>97.60762739829337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>40.34143413748154</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>152.1601105932413</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>358.3523640614732</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>307.8704850172979</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>25.37766628364847</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>117.677257167135</v>
       </c>
       <c r="K20" t="n">
-        <v>289.9283345326827</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>284.5267984361844</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>304.0757828023253</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>358.3523640614731</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>287.0769430646524</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>25.37766628364847</v>
       </c>
       <c r="P21" t="n">
-        <v>299.0446878862955</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>345.3305618899395</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>38.14371260210848</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>74.22475654414669</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>364.1667787881501</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>313.6848997439748</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>79.56776180361231</v>
+        <v>337.1911249567099</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>29.67204302604023</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>405.3482172585578</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>381.3054328696871</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>448.0666067621194</v>
+        <v>82.02611105378611</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>268.1039210288669</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>425.0339271200919</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>82.02611105378611</v>
       </c>
       <c r="N30" t="n">
-        <v>251.626629619824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2516020864844</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>361.6197230081525</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.02611105378617</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.601369749541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>157.4274733535529</v>
+        <v>75.34069562875573</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>392.4895285823227</v>
       </c>
       <c r="N35" t="n">
-        <v>383.6368596506316</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,16 +10671,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>415.8332151634362</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>87.72472589742586</v>
+        <v>395.0396732107907</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>57.82678314645466</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>216.9189204330183</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>118.4643570453764</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.49596527844469</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>161.5289625914224</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>395.0396732107903</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.02611105378639</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>383.6368596506317</v>
       </c>
       <c r="O41" t="n">
-        <v>20.376596847755</v>
+        <v>271.2879006258142</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>82.02611105378634</v>
       </c>
       <c r="N42" t="n">
-        <v>395.0396732107907</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>161.5289625914235</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>50.12024103421692</v>
       </c>
       <c r="L44" t="n">
-        <v>132.6068888895686</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>392.4895285823224</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.49596527844469</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>87.72472589742569</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>415.8332151634358</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378497</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>108.3683853481946</v>
       </c>
       <c r="C11" t="n">
-        <v>261.6808958849512</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>251.0910457346266</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.3383741862054</v>
       </c>
       <c r="F11" t="n">
-        <v>204.3731926113055</v>
+        <v>303.2840498556551</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546364</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>207.3370702978284</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792038</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>147.5306706798248</v>
@@ -23321,7 +23321,7 @@
         <v>245.6489728313567</v>
       </c>
       <c r="X11" t="n">
-        <v>266.1391047924127</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>282.6459427699972</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>279.1418457774242</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>275.9449108426328</v>
+        <v>38.48744950664415</v>
       </c>
       <c r="F14" t="n">
-        <v>303.2840498556551</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>308.9234123546364</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978284</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.91180785883459</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>224.1602625840786</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.6489728313567</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>266.1391047924127</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>22.56458067128813</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>22.56458067128808</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>22.56458067128804</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.56458067128807</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1198829.480385767</v>
+        <v>1198829.480385768</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163855.2677434077</v>
+        <v>163855.2677434076</v>
       </c>
       <c r="C2" t="n">
         <v>163855.2677434077</v>
@@ -26323,16 +26323,16 @@
         <v>135166.381346534</v>
       </c>
       <c r="F2" t="n">
-        <v>146768.1620347127</v>
+        <v>146768.1620347129</v>
       </c>
       <c r="G2" t="n">
         <v>163849.1258485698</v>
       </c>
       <c r="H2" t="n">
-        <v>163849.1258485698</v>
+        <v>163849.1258485699</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="J2" t="n">
         <v>164208.3539728569</v>
@@ -26344,16 +26344,16 @@
         <v>164208.3539728569</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728569</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
     </row>
     <row r="3">
@@ -26375,19 +26375,19 @@
         <v>746153.5340830691</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.21405764105</v>
+        <v>53805.21405764112</v>
       </c>
       <c r="G3" t="n">
-        <v>63446.95721973103</v>
+        <v>63446.95721973102</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532675</v>
+        <v>1546.174978532614</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.7258932402</v>
+        <v>96855.72589324026</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>63446.95721973104</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.165052091</v>
+        <v>80357.16505209099</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.55612927212</v>
+        <v>45993.55612927226</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>142908.8103538438</v>
+        <v>142908.8103538439</v>
       </c>
       <c r="F4" t="n">
-        <v>168497.449603743</v>
+        <v>168497.4496037431</v>
       </c>
       <c r="G4" t="n">
-        <v>217171.7787696231</v>
+        <v>217171.7787696232</v>
       </c>
       <c r="H4" t="n">
-        <v>217171.7787696231</v>
+        <v>217171.7787696232</v>
       </c>
       <c r="I4" t="n">
         <v>217964.0846343738</v>
@@ -26451,7 +26451,7 @@
         <v>213872.961061016</v>
       </c>
       <c r="N4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.961061016</v>
       </c>
       <c r="O4" t="n">
         <v>213872.961061016</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45458.11311732123</v>
+        <v>45458.11311732124</v>
       </c>
       <c r="F5" t="n">
         <v>56875.42608265275</v>
       </c>
       <c r="G5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078472</v>
       </c>
       <c r="H5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078472</v>
       </c>
       <c r="I5" t="n">
         <v>63896.34530616667</v>
@@ -26503,7 +26503,7 @@
         <v>67543.3939518316</v>
       </c>
       <c r="N5" t="n">
-        <v>67543.39395183157</v>
+        <v>67543.3939518316</v>
       </c>
       <c r="O5" t="n">
         <v>67543.3939518316</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316796.9525289852</v>
+        <v>-316801.3661068534</v>
       </c>
       <c r="C6" t="n">
-        <v>-316796.9525289852</v>
+        <v>-316801.3661068533</v>
       </c>
       <c r="D6" t="n">
-        <v>-316796.9525289851</v>
+        <v>-316801.3661068533</v>
       </c>
       <c r="E6" t="n">
-        <v>-799354.0762077002</v>
+        <v>-799717.1008655293</v>
       </c>
       <c r="F6" t="n">
-        <v>-132409.9277093241</v>
+        <v>-132627.9301085509</v>
       </c>
       <c r="G6" t="n">
-        <v>-180312.439031569</v>
+        <v>-180316.9293831227</v>
       </c>
       <c r="H6" t="n">
-        <v>-116865.481811838</v>
+        <v>-116869.9721633916</v>
       </c>
       <c r="I6" t="n">
-        <v>-119198.2509462164</v>
+        <v>-119198.2509462163</v>
       </c>
       <c r="J6" t="n">
-        <v>-217404.9832796934</v>
+        <v>-217404.9832796935</v>
       </c>
       <c r="K6" t="n">
-        <v>-120549.2573864534</v>
+        <v>-120549.2573864533</v>
       </c>
       <c r="L6" t="n">
-        <v>-183996.2146061842</v>
+        <v>-183996.2146061843</v>
       </c>
       <c r="M6" t="n">
-        <v>-197565.1660920818</v>
+        <v>-197565.1660920817</v>
       </c>
       <c r="N6" t="n">
-        <v>-163201.5571692628</v>
+        <v>-163201.5571692629</v>
       </c>
       <c r="O6" t="n">
         <v>-117208.0010399907</v>
       </c>
       <c r="P6" t="n">
-        <v>-117208.0010399907</v>
+        <v>-117208.0010399906</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G2" t="n">
         <v>182.9006924107201</v>
@@ -26707,13 +26707,13 @@
         <v>182.9006924107201</v>
       </c>
       <c r="J2" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="K2" t="n">
+        <v>79.30869652466377</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.3086965246638</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.30869652466382</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891937</v>
@@ -26747,19 +26747,19 @@
         <v>693.3481570175273</v>
       </c>
       <c r="F3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="G3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="H3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="I3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="J3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="K3" t="n">
         <v>693.3481570175272</v>
@@ -26799,31 +26799,31 @@
         <v>355.8264439505637</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698319</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698319</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698319</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="I4" t="n">
         <v>549.4256113965089</v>
       </c>
       <c r="J4" t="n">
-        <v>919.6069489897279</v>
+        <v>919.6069489897282</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897279</v>
+        <v>919.606948989728</v>
       </c>
       <c r="L4" t="n">
-        <v>919.6069489897279</v>
+        <v>919.606948989728</v>
       </c>
       <c r="M4" t="n">
         <v>651.5739268159701</v>
       </c>
       <c r="N4" t="n">
-        <v>651.5739268159698</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="O4" t="n">
         <v>651.5739268159701</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>79.3086965246638</v>
       </c>
       <c r="M2" t="n">
-        <v>73.09836646452985</v>
+        <v>73.09836646452986</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>355.8264439505637</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726677001</v>
+        <v>5.814414726676773</v>
       </c>
       <c r="J4" t="n">
-        <v>370.181337593219</v>
+        <v>370.1813375932193</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680587</v>
+        <v>87.79342177680576</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192679</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>355.8264439505637</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I11" t="n">
         <v>103.0173777174683</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5919958860563</v>
+        <v>71.96397790297279</v>
       </c>
       <c r="C12" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.52712799203002</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H12" t="n">
         <v>97.83211742750971</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.563150089057089</v>
       </c>
       <c r="S12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="13">
@@ -28245,43 +28245,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J13" t="n">
-        <v>30.8640012166663</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>30.86400121666624</v>
       </c>
       <c r="R13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I14" t="n">
         <v>103.0173777174683</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.37365806545369</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,19 +28454,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T15" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U15" t="n">
-        <v>103.5919958860563</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.613779606908139</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,43 +28482,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J16" t="n">
-        <v>4.962973278552951</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.90102793811354</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5919958860563</v>
+        <v>30.86400121666625</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5919958860563</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="17">
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I18" t="n">
-        <v>38.04962311002271</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,19 +28691,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>41.31553127515181</v>
       </c>
       <c r="U18" t="n">
-        <v>40.38636717498972</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>182.9006924107201</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>120.6011260225739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7406794031812</v>
+        <v>36.6930234959662</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9006924107201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>182.9006924107201</v>
@@ -28782,10 +28782,10 @@
         <v>182.9006924107201</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="Y19" t="n">
         <v>182.9006924107201</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>54.6161330177452</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057089</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.265908165129019</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.9006924107201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28965,22 +28965,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>136.2549973346661</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>13.19188174407304</v>
       </c>
       <c r="G22" t="n">
         <v>166.7406794031812</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J22" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="V22" t="n">
         <v>182.9006924107201</v>
@@ -29135,7 +29135,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>116.5534920174298</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>77.63474953159246</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.9006924107201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.399480984862</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.8505453630947</v>
@@ -29244,22 +29244,22 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>182.9006924107201</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.9006924107201</v>
       </c>
       <c r="W25" t="n">
         <v>182.9006924107201</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9006924107201</v>
+        <v>132.8035764565934</v>
       </c>
       <c r="Y25" t="n">
         <v>182.9006924107201</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="C26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="D26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="E26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="F26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="G26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="H26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="I26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="T26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="U26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="V26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="W26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="X26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="C28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="D28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="E28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="F28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="G28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="H28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="I28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="K28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="L28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="M28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="N28" t="n">
-        <v>79.3086965246635</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="P28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466444</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="R28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="S28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="T28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="U28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="V28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="W28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="X28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466376</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="K31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="L31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="N31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="O31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="P31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="R31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="S31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.30869652466356</v>
       </c>
       <c r="M34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="O34" t="n">
-        <v>79.30869652466302</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="R34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="35">
@@ -30147,16 +30147,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.2182216177564</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>152.4070629891937</v>
+        <v>135.1542952389338</v>
       </c>
       <c r="H37" t="n">
         <v>151.1108692686995</v>
@@ -30165,7 +30165,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J37" t="n">
-        <v>4.962973278552965</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.087130385712953e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30381,16 +30381,16 @@
         <v>152.4070629891937</v>
       </c>
       <c r="C40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>124.2182216177564</v>
       </c>
       <c r="G40" t="n">
         <v>152.4070629891937</v>
@@ -30399,7 +30399,7 @@
         <v>151.1108692686995</v>
       </c>
       <c r="I40" t="n">
-        <v>100.4393089289013</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J40" t="n">
         <v>4.962973278552965</v>
@@ -30435,7 +30435,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V40" t="n">
         <v>152.4070629891937</v>
@@ -30444,7 +30444,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y40" t="n">
         <v>152.4070629891937</v>
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H43" t="n">
         <v>151.1108692686995</v>
@@ -30639,7 +30639,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
-        <v>4.962973278552965</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,22 +30669,22 @@
         <v>152.4070629891937</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="U43" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="V43" t="n">
-        <v>133.9829119313622</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W43" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="X43" t="n">
-        <v>152.4070629891937</v>
+        <v>142.1403102051964</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.094235813070554e-12</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30858,25 +30858,25 @@
         <v>152.4070629891937</v>
       </c>
       <c r="D46" t="n">
-        <v>130.1913219603811</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1108692686995</v>
+        <v>140.8441164847024</v>
       </c>
       <c r="I46" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.962973278552965</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30918,7 +30918,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y46" t="n">
         <v>152.4070629891937</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H14" t="n">
         <v>28.5457359318824</v>
@@ -31996,16 +31996,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J14" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K14" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L14" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M14" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N14" t="n">
         <v>497.3501307619294</v>
@@ -32014,22 +32014,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P14" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R14" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S14" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T14" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,37 +32078,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K15" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L15" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M15" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N15" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O15" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P15" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q15" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R15" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S15" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H16" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I16" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J16" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K16" t="n">
         <v>145.2621220767868</v>
@@ -32163,28 +32163,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M16" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N16" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O16" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P16" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q16" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R16" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S16" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T16" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U16" t="n">
         <v>0.06819817937877325</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H17" t="n">
         <v>28.5457359318824</v>
@@ -32233,16 +32233,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J17" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K17" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L17" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M17" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N17" t="n">
         <v>497.3501307619294</v>
@@ -32251,22 +32251,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R17" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S17" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T17" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,37 +32315,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K18" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L18" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M18" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N18" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O18" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P18" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q18" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R18" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S18" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H19" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I19" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J19" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K19" t="n">
         <v>145.2621220767868</v>
@@ -32400,28 +32400,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M19" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N19" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O19" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P19" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q19" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R19" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S19" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U19" t="n">
         <v>0.06819817937877325</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H20" t="n">
         <v>28.5457359318824</v>
@@ -32470,16 +32470,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J20" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K20" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L20" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M20" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N20" t="n">
         <v>497.3501307619294</v>
@@ -32488,22 +32488,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P20" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R20" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S20" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T20" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,37 +32552,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K21" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L21" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M21" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N21" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O21" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P21" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q21" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R21" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S21" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H22" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I22" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J22" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K22" t="n">
         <v>145.2621220767868</v>
@@ -32637,28 +32637,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M22" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N22" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O22" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P22" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q22" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S22" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T22" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U22" t="n">
         <v>0.06819817937877325</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H23" t="n">
         <v>28.5457359318824</v>
@@ -32707,16 +32707,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J23" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K23" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L23" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M23" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N23" t="n">
         <v>497.3501307619294</v>
@@ -32725,22 +32725,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P23" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R23" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S23" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T23" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,37 +32789,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K24" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L24" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M24" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O24" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P24" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q24" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R24" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S24" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H25" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I25" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J25" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K25" t="n">
         <v>145.2621220767868</v>
@@ -32874,28 +32874,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M25" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N25" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O25" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P25" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q25" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R25" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S25" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T25" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U25" t="n">
         <v>0.06819817937877325</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H26" t="n">
         <v>28.5457359318824</v>
@@ -32944,16 +32944,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J26" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K26" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L26" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M26" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N26" t="n">
         <v>497.3501307619294</v>
@@ -32962,22 +32962,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P26" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R26" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S26" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T26" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,37 +33026,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K27" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L27" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M27" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O27" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P27" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q27" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R27" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S27" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H28" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I28" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J28" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K28" t="n">
         <v>145.2621220767868</v>
@@ -33111,28 +33111,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M28" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N28" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O28" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P28" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q28" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R28" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S28" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T28" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U28" t="n">
         <v>0.06819817937877325</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K12" t="n">
         <v>102.9793072229458</v>
@@ -35498,7 +35498,7 @@
         <v>235.7407116525341</v>
       </c>
       <c r="N12" t="n">
-        <v>256.5342536051795</v>
+        <v>331.3654651362505</v>
       </c>
       <c r="O12" t="n">
         <v>212.234486439799</v>
@@ -35507,7 +35507,7 @@
         <v>150.8085365500953</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.3103290292141</v>
+        <v>50.38808215773432</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.90102793811335</v>
+        <v>98.6290226075034</v>
       </c>
       <c r="K13" t="n">
-        <v>122.992630250904</v>
+        <v>226.5846261369603</v>
       </c>
       <c r="L13" t="n">
         <v>213.4755295203923</v>
       </c>
       <c r="M13" t="n">
-        <v>339.1660740192612</v>
+        <v>235.5740781332049</v>
       </c>
       <c r="N13" t="n">
-        <v>339.0541605124332</v>
+        <v>235.4621646263769</v>
       </c>
       <c r="O13" t="n">
         <v>201.3093434109006</v>
@@ -35586,7 +35586,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.53352845795224</v>
+        <v>49.39752967461848</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K14" t="n">
         <v>134.4688851488618</v>
       </c>
       <c r="L14" t="n">
-        <v>341.3212910398432</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M14" t="n">
-        <v>543.6111966698319</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="N14" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O14" t="n">
-        <v>239.5354138675069</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P14" t="n">
-        <v>491.3871462426119</v>
+        <v>247.2017819439084</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K15" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2588326083588</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M15" t="n">
-        <v>235.7407116525341</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N15" t="n">
-        <v>543.6111966698319</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O15" t="n">
-        <v>543.6111966698319</v>
+        <v>237.6121527234474</v>
       </c>
       <c r="P15" t="n">
-        <v>266.7515905319818</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q15" t="n">
         <v>260.4653698935834</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>98.62902260750339</v>
       </c>
       <c r="K16" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L16" t="n">
         <v>317.0675254064486</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N16" t="n">
-        <v>261.3631925644904</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O16" t="n">
         <v>201.3093434109006</v>
@@ -35823,7 +35823,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1255243440086</v>
+        <v>49.39752967461848</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>153.1328108783061</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K17" t="n">
-        <v>458.6142977200266</v>
+        <v>174.8103192863433</v>
       </c>
       <c r="L17" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M17" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N17" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O17" t="n">
-        <v>239.5354138675069</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P17" t="n">
-        <v>491.3871462426119</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K18" t="n">
-        <v>255.1394178161871</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L18" t="n">
-        <v>543.6111966698319</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M18" t="n">
-        <v>543.6111966698319</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N18" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O18" t="n">
-        <v>212.234486439799</v>
+        <v>237.6121527234474</v>
       </c>
       <c r="P18" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L19" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N19" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O19" t="n">
         <v>201.3093434109006</v>
@@ -36060,7 +36060,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6217986520865</v>
+        <v>173.2024406471477</v>
       </c>
       <c r="K20" t="n">
-        <v>424.3972196815445</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L20" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M20" t="n">
-        <v>543.6111966698319</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N20" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O20" t="n">
-        <v>239.5354138675069</v>
+        <v>543.6111966698321</v>
       </c>
       <c r="P20" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.69451431098369</v>
+        <v>78.69451431098364</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K21" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L21" t="n">
-        <v>543.6111966698319</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M21" t="n">
-        <v>235.7407116525341</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N21" t="n">
-        <v>543.6111966698319</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O21" t="n">
-        <v>212.234486439799</v>
+        <v>237.6121527234474</v>
       </c>
       <c r="P21" t="n">
-        <v>449.8532244363909</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L22" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M22" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N22" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O22" t="n">
         <v>201.3093434109006</v>
@@ -36297,7 +36297,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K23" t="n">
         <v>134.4688851488618</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4256113965089</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M23" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N23" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O23" t="n">
-        <v>239.5354138675069</v>
+        <v>277.6791264696153</v>
       </c>
       <c r="P23" t="n">
-        <v>491.3871462426119</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q23" t="n">
-        <v>152.9192708551304</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R23" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K24" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L24" t="n">
+        <v>185.2588326083587</v>
+      </c>
+      <c r="M24" t="n">
+        <v>235.7407116525339</v>
+      </c>
+      <c r="N24" t="n">
+        <v>256.5342536051794</v>
+      </c>
+      <c r="O24" t="n">
         <v>549.4256113965089</v>
       </c>
-      <c r="M24" t="n">
-        <v>549.4256113965089</v>
-      </c>
-      <c r="N24" t="n">
-        <v>256.5342536051795</v>
-      </c>
-      <c r="O24" t="n">
-        <v>291.8022482434113</v>
-      </c>
       <c r="P24" t="n">
-        <v>150.8085365500953</v>
+        <v>180.4805795761355</v>
       </c>
       <c r="Q24" t="n">
         <v>260.4653698935834</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L25" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M25" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N25" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O25" t="n">
         <v>201.3093434109006</v>
@@ -36534,7 +36534,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K26" t="n">
-        <v>134.4688851488618</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L26" t="n">
-        <v>609.4432667651272</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M26" t="n">
-        <v>708.5979317264799</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773227</v>
+        <v>649.2425000350256</v>
       </c>
       <c r="O26" t="n">
-        <v>620.3355951302523</v>
+        <v>620.3355951302522</v>
       </c>
       <c r="P26" t="n">
-        <v>491.3871462426119</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708884</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R26" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K27" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L27" t="n">
-        <v>185.2588326083588</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M27" t="n">
-        <v>683.8073184146534</v>
+        <v>317.7668227063201</v>
       </c>
       <c r="N27" t="n">
-        <v>735.876627948733</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O27" t="n">
         <v>212.234486439799</v>
       </c>
       <c r="P27" t="n">
-        <v>469.2713051900325</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611084</v>
+        <v>74.34572324611079</v>
       </c>
       <c r="K28" t="n">
-        <v>202.3013267755678</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L28" t="n">
         <v>292.784226045056</v>
       </c>
       <c r="M28" t="n">
-        <v>314.8827746578687</v>
+        <v>314.8827746578686</v>
       </c>
       <c r="N28" t="n">
-        <v>314.7708611510404</v>
+        <v>314.7708611510405</v>
       </c>
       <c r="O28" t="n">
         <v>280.6180399355644</v>
       </c>
       <c r="P28" t="n">
-        <v>227.8053521987569</v>
+        <v>227.8053521987576</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.84222498261603</v>
+        <v>97.84222498261599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.52518348001266</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K29" t="n">
-        <v>134.4688851488618</v>
+        <v>402.5728061777286</v>
       </c>
       <c r="L29" t="n">
         <v>621.7562640570197</v>
       </c>
       <c r="M29" t="n">
-        <v>708.5979317264798</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N29" t="n">
-        <v>692.9709942854304</v>
+        <v>705.2839915773227</v>
       </c>
       <c r="O29" t="n">
         <v>620.3355951302522</v>
@@ -36911,16 +36911,16 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K30" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L30" t="n">
-        <v>185.2588326083587</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M30" t="n">
-        <v>701.4457754025339</v>
+        <v>317.7668227063201</v>
       </c>
       <c r="N30" t="n">
-        <v>508.1608832250034</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O30" t="n">
         <v>212.234486439799</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611084</v>
+        <v>74.34572324611081</v>
       </c>
       <c r="K31" t="n">
-        <v>202.3013267755678</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L31" t="n">
         <v>292.784226045056</v>
       </c>
       <c r="M31" t="n">
-        <v>314.8827746578687</v>
+        <v>314.8827746578686</v>
       </c>
       <c r="N31" t="n">
         <v>314.7708611510406</v>
@@ -37008,7 +37008,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261603</v>
+        <v>97.842224982616</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K32" t="n">
-        <v>370.7204872353461</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L32" t="n">
         <v>204.0950495065693</v>
       </c>
       <c r="M32" t="n">
-        <v>708.5979317264798</v>
+        <v>620.7041212417998</v>
       </c>
       <c r="N32" t="n">
         <v>705.2839915773227</v>
@@ -37151,22 +37151,22 @@
         <v>367.4445442355243</v>
       </c>
       <c r="L33" t="n">
-        <v>185.2588326083587</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M33" t="n">
         <v>235.7407116525339</v>
       </c>
       <c r="N33" t="n">
-        <v>735.8766279487329</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O33" t="n">
-        <v>212.234486439799</v>
+        <v>294.2605974935851</v>
       </c>
       <c r="P33" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.9894519072753</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611085</v>
+        <v>74.34572324611084</v>
       </c>
       <c r="K34" t="n">
         <v>202.3013267755678</v>
       </c>
       <c r="L34" t="n">
-        <v>292.784226045056</v>
+        <v>292.7842260450558</v>
       </c>
       <c r="M34" t="n">
         <v>314.8827746578687</v>
       </c>
       <c r="N34" t="n">
-        <v>314.7708611510407</v>
+        <v>314.7708611510406</v>
       </c>
       <c r="O34" t="n">
-        <v>280.6180399355636</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P34" t="n">
         <v>227.8053521987569</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261605</v>
+        <v>97.84222498261603</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.52518348001266</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K35" t="n">
-        <v>291.8963585024147</v>
+        <v>209.8095807776175</v>
       </c>
       <c r="L35" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M35" t="n">
-        <v>259.0843982336473</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N35" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O35" t="n">
         <v>239.5354138675068</v>
       </c>
       <c r="P35" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q35" t="n">
         <v>291.0095049708883</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.06249267592347</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K36" t="n">
         <v>367.4445442355243</v>
@@ -37391,16 +37391,16 @@
         <v>185.2588326083587</v>
       </c>
       <c r="M36" t="n">
+        <v>235.7407116525339</v>
+      </c>
+      <c r="N36" t="n">
         <v>651.5739268159701</v>
       </c>
-      <c r="N36" t="n">
-        <v>344.2589795026053</v>
-      </c>
       <c r="O36" t="n">
-        <v>606.0968057165285</v>
+        <v>270.0612695862536</v>
       </c>
       <c r="P36" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q36" t="n">
         <v>260.4653698935834</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.52518348001266</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K38" t="n">
         <v>458.6142977200265</v>
       </c>
       <c r="L38" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M38" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N38" t="n">
-        <v>484.8559875983568</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O38" t="n">
-        <v>239.5354138675068</v>
+        <v>357.9997709128833</v>
       </c>
       <c r="P38" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q38" t="n">
         <v>291.0095049708883</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K39" t="n">
-        <v>264.5082698143681</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L39" t="n">
         <v>556.0991779118178</v>
@@ -37631,16 +37631,16 @@
         <v>235.7407116525339</v>
       </c>
       <c r="N39" t="n">
-        <v>651.5739268159698</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O39" t="n">
-        <v>212.234486439799</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P39" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38808215773429</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.52518348001266</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K41" t="n">
-        <v>458.6142977200265</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L41" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M41" t="n">
         <v>259.0843982336473</v>
@@ -37792,10 +37792,10 @@
         <v>651.5739268159701</v>
       </c>
       <c r="O41" t="n">
-        <v>259.9120107152618</v>
+        <v>510.8233144933211</v>
       </c>
       <c r="P41" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q41" t="n">
         <v>78.69451431098364</v>
@@ -37859,25 +37859,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K42" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L42" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M42" t="n">
-        <v>235.7407116525339</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N42" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O42" t="n">
-        <v>373.7634490312225</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P42" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38808215773429</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.52518348001266</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K44" t="n">
-        <v>458.6142977200265</v>
+        <v>184.5891261830787</v>
       </c>
       <c r="L44" t="n">
-        <v>336.7019383961378</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M44" t="n">
         <v>651.5739268159698</v>
@@ -38035,10 +38035,10 @@
         <v>491.3871462426118</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.69451431098364</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.06249267592347</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K45" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L45" t="n">
-        <v>272.9835585057844</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M45" t="n">
-        <v>651.5739268159698</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N45" t="n">
         <v>256.5342536051794</v>
       </c>
       <c r="O45" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935839</v>
       </c>
       <c r="P45" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q45" t="n">
         <v>260.4653698935834</v>
